--- a/我的家/装修/水电预估.xlsx
+++ b/我的家/装修/水电预估.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Documents\My Pictures\北辰\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\装修\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>厨卫1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,14 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冰箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗漱台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>餐厅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房门中间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>女孩房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +329,14 @@
   </si>
   <si>
     <t>小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,10 +687,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -714,7 +710,7 @@
         <v>17.681249999999999</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <f>240+135+835+190</f>
@@ -744,7 +740,7 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <f>315+760+2650-190</f>
@@ -776,7 +772,7 @@
         <v>4.5004500000000007</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G4">
         <f>2210+210+1150+220</f>
@@ -808,7 +804,7 @@
         <v>8.0855499999999996</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <f>240+30+930+240</f>
@@ -840,7 +836,7 @@
         <v>5.9359999999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G6">
         <f>240+3090+240</f>
@@ -872,7 +868,7 @@
         <v>26.890049999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G7">
         <v>1440</v>
@@ -934,7 +930,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>98</v>
@@ -953,7 +949,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>22</v>
@@ -972,7 +968,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <f>E12+E13</f>
@@ -995,8 +991,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1009,19 +1005,19 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -1029,16 +1025,16 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -1051,14 +1047,14 @@
         <v>10.399999999999999</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2">
         <f>1.8+2.5+7+0.5</f>
         <v>11.8</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -1078,10 +1074,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1090,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <f>1.8+2.5+3.2+1.2+4.5+2.3</f>
@@ -1100,8 +1096,8 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f>1160+200+1780+200+1175+200</f>
-        <v>4715</v>
+        <f>240+135+835+2650+760+315</f>
+        <v>4935</v>
       </c>
       <c r="O3">
         <f>200+1765+200+1585</f>
@@ -1109,7 +1105,7 @@
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P10" si="0">(N3/1000)*(O3/1000)</f>
-        <v>17.681249999999999</v>
+        <v>18.506249999999998</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -1120,13 +1116,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <f>1.8+2.5+3.2+1.2+1+4.5+2.3</f>
@@ -1139,11 +1135,11 @@
         <v>1160</v>
       </c>
       <c r="O4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
+        <v>0.23199999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -1154,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1167,12 +1163,12 @@
         <v>1370</v>
       </c>
       <c r="O5">
-        <f>2075+880+330</f>
-        <v>3285</v>
+        <f>200+2075+880+330</f>
+        <v>3485</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>4.5004500000000007</v>
+        <v>4.7744499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -1183,25 +1179,25 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="s">
         <v>6</v>
       </c>
       <c r="N6">
-        <f>2210+200</f>
-        <v>2410</v>
+        <f>2210+210</f>
+        <v>2420</v>
       </c>
       <c r="O6">
-        <f>200+2075+880+200</f>
-        <v>3355</v>
+        <f>240+2075+880+330</f>
+        <v>3525</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>8.0855499999999996</v>
+        <v>8.5305</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -1212,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1221,172 +1217,172 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <f>1200+200</f>
-        <v>1400</v>
+        <f>1200+240</f>
+        <v>1440</v>
       </c>
       <c r="O7">
-        <f>3840+200+200</f>
-        <v>4240</v>
+        <f>3840+240+240</f>
+        <v>4320</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>5.9359999999999999</v>
+        <v>6.2208000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
         <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
       </c>
       <c r="M8" t="s">
         <v>8</v>
       </c>
       <c r="N8">
-        <f>200+2220+1150+220</f>
-        <v>3790</v>
+        <f>240+2220+1150+220</f>
+        <v>3830</v>
       </c>
       <c r="O8">
-        <f>6895+200</f>
-        <v>7095</v>
+        <f>6895+220</f>
+        <v>7115</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>26.890049999999999</v>
+        <v>27.250450000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
       </c>
       <c r="N9">
-        <f>200+3100+200</f>
-        <v>3500</v>
+        <f>240+3100+215</f>
+        <v>3555</v>
       </c>
       <c r="O9">
-        <f>200+1175+1460+200+3970+200</f>
-        <v>7205</v>
+        <f>240+1175+1460+230+3970+240</f>
+        <v>7315</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>25.217500000000001</v>
+        <v>26.004825000000004</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
       </c>
       <c r="N10">
-        <f>200+3090+200</f>
-        <v>3490</v>
+        <f>240+3090+240</f>
+        <v>3570</v>
       </c>
       <c r="O10">
-        <f>990+200</f>
-        <v>1190</v>
+        <f>990+240</f>
+        <v>1230</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>4.1531000000000002</v>
+        <v>4.3910999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P17">
+        <f>SUM(P2:P15)</f>
+        <v>95.910374999999988</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <f>SUM(B2:B17)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <f>SUM(D2:D17)</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F18">
         <f>SUM(F2:F17)</f>
@@ -1405,13 +1401,12 @@
         <v>2</v>
       </c>
       <c r="P18">
-        <f>SUM(P2:P17)</f>
-        <v>92.811899999999994</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>66</v>
@@ -1441,11 +1436,11 @@
       </c>
       <c r="B20">
         <f>B18*B19</f>
-        <v>2112</v>
+        <v>2178</v>
       </c>
       <c r="D20">
         <f>D18*D19</f>
-        <v>2812</v>
+        <v>3182</v>
       </c>
       <c r="F20">
         <f>F18*F19</f>
@@ -1465,16 +1460,16 @@
       </c>
       <c r="P20">
         <f>P18*P19</f>
-        <v>2041.8617999999999</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <f>SUM(B20:P20)</f>
-        <v>9504.0617999999995</v>
+        <v>10032.200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1500,45 +1495,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1546,13 +1541,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1560,7 +1555,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>2.4</v>
@@ -1569,7 +1564,7 @@
         <v>2.4</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1577,7 +1572,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <f>0.9+0.2+1.5</f>
@@ -1588,7 +1583,7 @@
         <v>2.6</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1596,7 +1591,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1.8</v>
@@ -1605,7 +1600,7 @@
         <v>1.8</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1613,13 +1608,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1627,7 +1622,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <f>1.2+0.2+1.8+0.2+1.2</f>
@@ -1638,7 +1633,7 @@
         <v>4.6000000000000005</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1646,7 +1641,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>1.5</v>
@@ -1655,7 +1650,7 @@
         <v>1.5</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1663,7 +1658,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>1.8</v>
@@ -1672,7 +1667,7 @@
         <v>1.8</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1680,7 +1675,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -1688,7 +1683,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>0.3</v>
@@ -1696,7 +1691,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>2.4</v>
@@ -1704,7 +1699,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>0.3</v>
@@ -1715,7 +1710,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1726,7 +1721,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>1.2</v>
@@ -1737,7 +1732,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1.8</v>
@@ -1748,7 +1743,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1759,7 +1754,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <f>SUM(B2:B20)</f>
@@ -1780,7 +1775,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>62</v>
@@ -1819,7 +1814,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <f>SUM(B23:P23)</f>

--- a/我的家/装修/水电预估.xlsx
+++ b/我的家/装修/水电预估.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9840" windowHeight="4665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9840" windowHeight="4665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="外框面积" sheetId="1" r:id="rId1"/>
     <sheet name="电路改造" sheetId="2" r:id="rId2"/>
     <sheet name="水路改造" sheetId="3" r:id="rId3"/>
+    <sheet name="水路改造 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
   <si>
     <t>厨卫1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>净水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花洒1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电热水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>热水器顶部到座便区顶部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前置滤水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>厨卫在整体下面的面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,6 +326,58 @@
   </si>
   <si>
     <t>过道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座便区顶部到花洒顶部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座便区花洒顶部到花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶顶部到马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内总阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水器/洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卫花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹲便器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卫花洒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗脸盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入户到总水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向主水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卫龙头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +712,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,10 +728,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -710,7 +751,7 @@
         <v>17.681249999999999</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <f>240+135+835+190</f>
@@ -740,7 +781,7 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G3">
         <f>315+760+2650-190</f>
@@ -772,7 +813,7 @@
         <v>4.5004500000000007</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <f>2210+210+1150+220</f>
@@ -804,7 +845,7 @@
         <v>8.0855499999999996</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G5">
         <f>240+30+930+240</f>
@@ -836,7 +877,7 @@
         <v>5.9359999999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G6">
         <f>240+3090+240</f>
@@ -868,7 +909,7 @@
         <v>26.890049999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G7">
         <v>1440</v>
@@ -930,7 +971,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12">
         <v>98</v>
@@ -949,7 +990,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>22</v>
@@ -968,7 +1009,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <f>E12+E13</f>
@@ -991,7 +1032,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -1028,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1266,7 +1307,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1289,7 +1330,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1482,10 +1523,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D2" sqref="D2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1493,7 +1534,7 @@
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1512,19 +1553,19 @@
       <c r="H1" t="s">
         <v>34</v>
       </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
       <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -1533,27 +1574,37 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f>(1780+140+1175+400+400)/1000</f>
+        <v>3.895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>45</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1564,13 +1615,13 @@
         <v>2.4</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1583,13 +1634,13 @@
         <v>2.6</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1600,13 +1651,13 @@
         <v>1.8</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1614,15 +1665,15 @@
         <v>0.5</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <f>1.2+0.2+1.8+0.2+1.2</f>
@@ -1633,15 +1684,15 @@
         <v>4.6000000000000005</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>1.5</v>
@@ -1650,15 +1701,15 @@
         <v>1.5</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>1.8</v>
@@ -1667,72 +1718,72 @@
         <v>1.8</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>2.4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16">
         <v>0.3</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16">
-        <v>1.2</v>
-      </c>
-      <c r="C16">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>1.8</v>
@@ -1741,88 +1792,476 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19">
+        <v>2.4</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
-        <f>SUM(B2:B20)</f>
-        <v>30.200000000000003</v>
-      </c>
-      <c r="C21">
-        <f>SUM(C2:C20)</f>
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <f>SUM(E2:E20)</f>
+      <c r="B23">
+        <f>SUM(B2:B22)</f>
+        <v>28.6</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C2:C22)</f>
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <f>SUM(E2:E22)</f>
         <v>14</v>
       </c>
-      <c r="G21">
-        <f>SUM(G2:G20)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="G23">
+        <f>SUM(G2:G22)</f>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H2:H22)</f>
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <f>SUM(I2:I22)</f>
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f>SUM(J2:J22)</f>
+        <v>3.895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>62</v>
       </c>
-      <c r="C22">
-        <f>62+19</f>
-        <v>81</v>
-      </c>
-      <c r="E22">
+      <c r="C24">
+        <v>62</v>
+      </c>
+      <c r="E24">
         <v>80</v>
       </c>
-      <c r="G22">
+      <c r="G24">
         <v>225</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="H24">
+        <v>90</v>
+      </c>
+      <c r="I24">
+        <v>105</v>
+      </c>
+      <c r="J24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B23">
-        <f>B21*B22</f>
-        <v>1872.4</v>
-      </c>
-      <c r="C23">
-        <f>C21*C22</f>
-        <v>1701</v>
-      </c>
-      <c r="E23">
-        <f>E21*E22</f>
+      <c r="B25">
+        <f>B23*B24</f>
+        <v>1773.2</v>
+      </c>
+      <c r="C25">
+        <f>C23*C24</f>
+        <v>1240</v>
+      </c>
+      <c r="E25">
+        <f>E23*E24</f>
         <v>1120</v>
       </c>
-      <c r="G23">
-        <f>G21*G22</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="G25">
+        <f>G23*G24</f>
+        <v>225</v>
+      </c>
+      <c r="H25">
+        <f>H23*H24</f>
+        <v>180</v>
+      </c>
+      <c r="I25">
+        <f>I23*I24</f>
+        <v>210</v>
+      </c>
+      <c r="J25">
+        <f>J23*J24</f>
+        <v>467.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B25">
-        <f>SUM(B23:P23)</f>
-        <v>5143.3999999999996</v>
+      <c r="B27">
+        <f>SUM(B25:N25)</f>
+        <v>5215.5999999999995</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <f>1.45+0.43+0.48+0.3+0.43+0.14</f>
+        <v>3.23</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f>(1780+140+1175+400+400)/1000</f>
+        <v>3.895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>0.26</v>
+      </c>
+      <c r="C3">
+        <v>0.35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4">
+        <f>1.2+4.6+2.85</f>
+        <v>8.65</v>
+      </c>
+      <c r="C4">
+        <f>1.2+4.6+2.7</f>
+        <v>8.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>0.15</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>0.9</v>
+      </c>
+      <c r="C6">
+        <v>1.05</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <f>2.15+1.75+0.25+1.5</f>
+        <v>5.65</v>
+      </c>
+      <c r="C7">
+        <f>2+1.75+0.25+1.5</f>
+        <v>5.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <v>0.35</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>19.790000000000006</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C2:C13)</f>
+        <v>15.700000000000001</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E2:E13)</f>
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <f>SUM(G2:G13)</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>SUM(H2:H13)</f>
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f>SUM(I2:I13)</f>
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f>SUM(J2:J13)</f>
+        <v>3.895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>62</v>
+      </c>
+      <c r="E15">
+        <v>80</v>
+      </c>
+      <c r="G15">
+        <v>225</v>
+      </c>
+      <c r="H15">
+        <v>90</v>
+      </c>
+      <c r="I15">
+        <v>105</v>
+      </c>
+      <c r="J15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <f>B14*B15</f>
+        <v>1226.9800000000005</v>
+      </c>
+      <c r="C16">
+        <f>C14*C15</f>
+        <v>973.40000000000009</v>
+      </c>
+      <c r="E16">
+        <f>E14*E15</f>
+        <v>1120</v>
+      </c>
+      <c r="G16">
+        <f>G14*G15</f>
+        <v>225</v>
+      </c>
+      <c r="H16">
+        <f>H14*H15</f>
+        <v>180</v>
+      </c>
+      <c r="I16">
+        <f>I14*I15</f>
+        <v>210</v>
+      </c>
+      <c r="J16">
+        <f>J14*J15</f>
+        <v>467.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B16:N16)</f>
+        <v>4402.7800000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>